--- a/data/trans_bre/P57_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,52</t>
+          <t>-2,65; 4,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 9,23</t>
+          <t>-0,71; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 101,49</t>
+          <t>-34,88; 105,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 492,52</t>
+          <t>-31,31; 436,92</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,83</t>
+          <t>-5,89; 1,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,78</t>
+          <t>-5,53; 2,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 16,75</t>
+          <t>-37,73; 17,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 49,43</t>
+          <t>-52,95; 48,49</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 3,41</t>
+          <t>-4,62; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,14</t>
+          <t>-3,88; 2,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 28,32</t>
+          <t>-28,77; 24,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 32,1</t>
+          <t>-37,01; 44,23</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 5,54</t>
+          <t>-4,21; 4,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 8,87</t>
+          <t>1,77; 8,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 28,72</t>
+          <t>-18,03; 23,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 115,26</t>
+          <t>15,12; 105,2</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 19,77</t>
+          <t>8,17; 19,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,94</t>
+          <t>-0,13; 8,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,04; 113,58</t>
+          <t>36,33; 118,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 41,72</t>
+          <t>-0,4; 45,72</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,18</t>
+          <t>5,44; 15,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 7,38</t>
+          <t>-7,2; 7,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,01; 53,12</t>
+          <t>15,08; 52,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 31,91</t>
+          <t>-28,21; 30,91</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,94</t>
+          <t>2,87; 6,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,91</t>
+          <t>1,07; 5,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,91; 40,03</t>
+          <t>14,65; 39,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,17; 38,46</t>
+          <t>7,66; 39,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Edad-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,32</t>
+          <t>-2,44; 4,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 105,25</t>
+          <t>-32,06; 104,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 1,94</t>
+          <t>-5,87; 1,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 17,72</t>
+          <t>-37,75; 19,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 3,08</t>
+          <t>-4,33; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 24,74</t>
+          <t>-26,9; 29,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,68</t>
+          <t>-4,64; 4,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 23,86</t>
+          <t>-18,95; 22,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 19,66</t>
+          <t>8,0; 19,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,33; 118,31</t>
+          <t>33,76; 117,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 15,79</t>
+          <t>5,53; 15,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,08; 52,14</t>
+          <t>16,0; 52,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,95</t>
+          <t>3,0; 6,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,65; 39,8</t>
+          <t>15,45; 40,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">

--- a/data/trans_bre/P57_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,7 +519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 4,52</t>
+          <t>-2,54; 4,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,72</t>
+          <t>-0,88; 9,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 104,31</t>
+          <t>-35,98; 101,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 436,92</t>
+          <t>-34,01; 492,52</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 1,98</t>
+          <t>-5,73; 1,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,57</t>
+          <t>-5,37; 2,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 19,92</t>
+          <t>-37,99; 16,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 48,49</t>
+          <t>-53,06; 49,43</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,33</t>
+          <t>-4,58; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,72</t>
+          <t>-4,09; 2,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 29,0</t>
+          <t>-27,78; 28,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 44,23</t>
+          <t>-38,93; 32,1</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 4,46</t>
+          <t>-4,39; 5,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,52</t>
+          <t>1,73; 8,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 22,73</t>
+          <t>-18,03; 28,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 105,2</t>
+          <t>14,74; 115,26</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 19,82</t>
+          <t>8,61; 19,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 8,64</t>
+          <t>-0,56; 7,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,76; 117,45</t>
+          <t>36,04; 113,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 45,72</t>
+          <t>-1,99; 41,72</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,9</t>
+          <t>5,36; 16,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 7,2</t>
+          <t>-6,53; 7,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 52,35</t>
+          <t>15,01; 53,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 30,91</t>
+          <t>-23,71; 31,91</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,93</t>
+          <t>2,83; 6,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,03</t>
+          <t>1,32; 4,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,45; 40,28</t>
+          <t>14,91; 40,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,66; 39,8</t>
+          <t>9,17; 38,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -519,7 +519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>110,79%</t>
+          <t>114,92%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 9,23</t>
+          <t>-0,77; 9,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 492,52</t>
+          <t>-35,53; 496,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>-26,51%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,78</t>
+          <t>-6,6; 1,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 49,43</t>
+          <t>-64,13; 24,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-7,72%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,14</t>
+          <t>-4,07; 2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 32,1</t>
+          <t>-39,56; 32,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>89,65%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 8,87</t>
+          <t>2,43; 12,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,14 +804,14 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 115,26</t>
+          <t>20,21; 289,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>18,36%</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,94</t>
+          <t>-0,56; 7,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -864,14 +864,14 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 41,72</t>
+          <t>-2,12; 42,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>10,68</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>38,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>-11,68%</t>
         </is>
       </c>
     </row>
@@ -909,29 +909,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,18</t>
+          <t>3,03; 17,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 7,38</t>
+          <t>-14,56; 7,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,01; 53,12</t>
+          <t>10,48; 73,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 31,91</t>
+          <t>-67,08; 41,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>11,3%</t>
         </is>
       </c>
     </row>
@@ -969,34 +969,94 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,75; 15,91</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 8,76</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 43,38</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 32,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26,71%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,83; 6,94</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 4,91</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 5,9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>14,91; 40,03</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,17; 38,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 55,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1006,6 +1066,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P57_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,52</t>
+          <t>-2,84; 4,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 9,06</t>
+          <t>-0,89; 8,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 101,49</t>
+          <t>-36,04; 103,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 496,83</t>
+          <t>-37,74; 539,58</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,83</t>
+          <t>-6,07; 1,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 1,53</t>
+          <t>-7,29; 1,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 16,75</t>
+          <t>-39,62; 15,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,13; 24,87</t>
+          <t>-63,8; 29,53</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 3,41</t>
+          <t>-4,38; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,05</t>
+          <t>-3,83; 2,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 28,32</t>
+          <t>-26,53; 26,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,56; 32,1</t>
+          <t>-37,9; 33,15</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 5,54</t>
+          <t>-4,47; 5,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 12,16</t>
+          <t>2,97; 12,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 28,72</t>
+          <t>-18,44; 25,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 289,15</t>
+          <t>26,0; 345,25</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 19,77</t>
+          <t>8,65; 20,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,82</t>
+          <t>-0,51; 8,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,04; 113,58</t>
+          <t>38,36; 117,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 42,06</t>
+          <t>-2,59; 42,41</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 17,38</t>
+          <t>3,63; 17,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 7,5</t>
+          <t>-12,5; 7,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,48; 73,45</t>
+          <t>11,67; 74,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,08; 41,65</t>
+          <t>-62,78; 41,86</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 15,91</t>
+          <t>0,65; 16,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 8,76</t>
+          <t>-2,05; 8,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 43,38</t>
+          <t>1,09; 45,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 32,43</t>
+          <t>-5,91; 31,62</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,94</t>
+          <t>2,96; 6,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,9</t>
+          <t>0,4; 6,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,91; 40,03</t>
+          <t>14,74; 39,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,45; 55,42</t>
+          <t>3,75; 63,47</t>
         </is>
       </c>
     </row>
